--- a/INTLINE/data/536/BPS/WPIM_historical.xlsx
+++ b/INTLINE/data/536/BPS/WPIM_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:KR11"/>
+  <dimension ref="A1:KT11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1880,6 +1880,16 @@
       <c r="KR1" s="1" t="inlineStr">
         <is>
           <t>2022-03</t>
+        </is>
+      </c>
+      <c r="KS1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="KT1" s="1" t="inlineStr">
+        <is>
+          <t>2022-05</t>
         </is>
       </c>
     </row>
@@ -2600,6 +2610,12 @@
       <c r="KR2" t="n">
         <v>103.35</v>
       </c>
+      <c r="KS2" t="n">
+        <v>103.68</v>
+      </c>
+      <c r="KT2" t="n">
+        <v>103.79</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -3318,6 +3334,12 @@
       <c r="KR3" t="n">
         <v>112.81</v>
       </c>
+      <c r="KS3" t="n">
+        <v>114.43</v>
+      </c>
+      <c r="KT3" t="n">
+        <v>114.5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -4036,6 +4058,12 @@
       <c r="KR4" t="n">
         <v>110.68</v>
       </c>
+      <c r="KS4" t="n">
+        <v>111.91</v>
+      </c>
+      <c r="KT4" t="n">
+        <v>112.33</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -4951,6 +4979,12 @@
       </c>
       <c r="KR5" t="n">
         <v>109.27</v>
+      </c>
+      <c r="KS5" t="n">
+        <v>110.33</v>
+      </c>
+      <c r="KT5" t="n">
+        <v>110.69</v>
       </c>
     </row>
     <row r="6">
@@ -5580,6 +5614,12 @@
       <c r="KR6" t="n">
         <v>111.79</v>
       </c>
+      <c r="KS6" t="n">
+        <v>112.44</v>
+      </c>
+      <c r="KT6" t="n">
+        <v>113.07</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -6208,6 +6248,12 @@
       <c r="KR7" t="n">
         <v>107.74</v>
       </c>
+      <c r="KS7" t="n">
+        <v>108.33</v>
+      </c>
+      <c r="KT7" t="n">
+        <v>108.81</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -6836,6 +6882,12 @@
       <c r="KR8" t="n">
         <v>110.94</v>
       </c>
+      <c r="KS8" t="n">
+        <v>111.8</v>
+      </c>
+      <c r="KT8" t="n">
+        <v>112.51</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -7464,6 +7516,12 @@
       <c r="KR9" t="n">
         <v>114.61</v>
       </c>
+      <c r="KS9" t="n">
+        <v>115.4</v>
+      </c>
+      <c r="KT9" t="n">
+        <v>115.89</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -8092,6 +8150,12 @@
       <c r="KR10" t="n">
         <v>110.18</v>
       </c>
+      <c r="KS10" t="n">
+        <v>110.9</v>
+      </c>
+      <c r="KT10" t="n">
+        <v>111.46</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -8720,6 +8784,12 @@
       <c r="KR11" t="n">
         <v>110.95</v>
       </c>
+      <c r="KS11" t="n">
+        <v>111.68</v>
+      </c>
+      <c r="KT11" t="n">
+        <v>112.31</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
